--- a/example.xlsx
+++ b/example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaoyunhui/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaoyunhui/objects/hzjuce/vue-element-admin/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA97801-0B6A-4B47-9A4B-127F2A94A6FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAC3ADD-9CC6-1E4C-B5B5-CEEE46D43D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16940" xr2:uid="{18546A76-50F2-6B4A-9AF4-402DB3B13F05}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -442,7 +442,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -450,7 +450,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>2E-3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -458,7 +458,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
